--- a/MainlandTrunksensitiveResults241014.xlsx
+++ b/MainlandTrunksensitiveResults241014.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E75744-DF4C-4B57-B8D1-D325B40A9916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7CD035-2FD2-45B8-A193-29D9D1CFEE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="5025" windowWidth="32565" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -7623,7 +7623,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7639,12 +7639,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7728,7 +7722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7781,32 +7775,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="86">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7873,136 +7846,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -9131,25 +8974,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F953"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD340E7-2486-484B-B333-0844FDAEB486}">
+  <dimension ref="A1:F737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="51" style="5" customWidth="1"/>
-    <col min="4" max="4" width="43.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="84.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="84.75" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -9189,7 +9030,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -9209,7 +9050,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>149</v>
       </c>
@@ -9229,7 +9070,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
@@ -9249,7 +9090,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>149</v>
       </c>
@@ -9269,7 +9110,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
@@ -9289,7 +9130,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -9309,7 +9150,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>149</v>
       </c>
@@ -9329,7 +9170,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>149</v>
       </c>
@@ -9349,7 +9190,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>149</v>
       </c>
@@ -9369,7 +9210,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>149</v>
       </c>
@@ -9389,7 +9230,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>149</v>
       </c>
@@ -9409,7 +9250,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -9429,7 +9270,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>149</v>
       </c>
@@ -9449,7 +9290,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
@@ -9469,7 +9310,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>149</v>
       </c>
@@ -9489,7 +9330,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
@@ -9509,7 +9350,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>149</v>
       </c>
@@ -9529,7 +9370,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>149</v>
       </c>
@@ -9549,7 +9390,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>149</v>
       </c>
@@ -9569,7 +9410,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>149</v>
       </c>
@@ -9589,7 +9430,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>149</v>
       </c>
@@ -9609,7 +9450,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -9629,7 +9470,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>149</v>
       </c>
@@ -9649,7 +9490,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>149</v>
       </c>
@@ -9669,7 +9510,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>149</v>
       </c>
@@ -9689,7 +9530,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>149</v>
       </c>
@@ -9709,7 +9550,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>149</v>
       </c>
@@ -9729,7 +9570,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>149</v>
       </c>
@@ -9749,7 +9590,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>149</v>
       </c>
@@ -9769,7 +9610,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
@@ -9789,7 +9630,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>149</v>
       </c>
@@ -9809,7 +9650,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>149</v>
       </c>
@@ -9829,7 +9670,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>149</v>
       </c>
@@ -9849,7 +9690,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>149</v>
       </c>
@@ -9869,7 +9710,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>149</v>
       </c>
@@ -9889,7 +9730,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>149</v>
       </c>
@@ -9909,7 +9750,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>149</v>
       </c>
@@ -9929,7 +9770,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>149</v>
       </c>
@@ -9949,7 +9790,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>149</v>
       </c>
@@ -9969,7 +9810,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>149</v>
       </c>
@@ -9989,7 +9830,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>149</v>
       </c>
@@ -10009,7 +9850,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>149</v>
       </c>
@@ -10029,7 +9870,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>149</v>
       </c>
@@ -10049,7 +9890,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>149</v>
       </c>
@@ -10069,7 +9910,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>149</v>
       </c>
@@ -10089,7 +9930,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>149</v>
       </c>
@@ -10109,7 +9950,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>149</v>
       </c>
@@ -10129,7 +9970,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>149</v>
       </c>
@@ -10149,7 +9990,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -10169,7 +10010,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
@@ -10189,7 +10030,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -10209,7 +10050,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>150</v>
       </c>
@@ -10227,7 +10068,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>150</v>
       </c>
@@ -10245,7 +10086,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -10263,7 +10104,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -10281,7 +10122,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
@@ -10301,7 +10142,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>150</v>
       </c>
@@ -10321,7 +10162,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>150</v>
       </c>
@@ -10339,7 +10180,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
@@ -10357,7 +10198,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>150</v>
       </c>
@@ -10375,7 +10216,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>150</v>
       </c>
@@ -10393,7 +10234,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>150</v>
       </c>
@@ -10411,7 +10252,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>150</v>
       </c>
@@ -10429,7 +10270,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -10447,7 +10288,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>150</v>
       </c>
@@ -10465,7 +10306,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>150</v>
       </c>
@@ -10483,7 +10324,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>150</v>
       </c>
@@ -10501,7 +10342,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>150</v>
       </c>
@@ -10519,7 +10360,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -10537,7 +10378,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
@@ -10555,7 +10396,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>150</v>
       </c>
@@ -10573,7 +10414,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>150</v>
       </c>
@@ -10591,7 +10432,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>150</v>
       </c>
@@ -10609,7 +10450,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -10627,7 +10468,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>150</v>
       </c>
@@ -10645,7 +10486,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>150</v>
       </c>
@@ -10663,7 +10504,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>150</v>
       </c>
@@ -10681,7 +10522,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>150</v>
       </c>
@@ -10699,7 +10540,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>150</v>
       </c>
@@ -10717,7 +10558,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
@@ -10735,7 +10576,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>150</v>
       </c>
@@ -10753,7 +10594,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>150</v>
       </c>
@@ -10771,7 +10612,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>150</v>
       </c>
@@ -10789,7 +10630,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>150</v>
       </c>
@@ -10807,7 +10648,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
@@ -10825,7 +10666,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>150</v>
       </c>
@@ -10843,7 +10684,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>150</v>
       </c>
@@ -10861,7 +10702,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
@@ -10879,7 +10720,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>150</v>
       </c>
@@ -10897,7 +10738,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>150</v>
       </c>
@@ -10915,7 +10756,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>150</v>
       </c>
@@ -10933,7 +10774,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>150</v>
       </c>
@@ -10951,7 +10792,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>150</v>
       </c>
@@ -10969,7 +10810,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>150</v>
       </c>
@@ -10987,7 +10828,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>150</v>
       </c>
@@ -11005,7 +10846,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>150</v>
       </c>
@@ -11025,7 +10866,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>150</v>
       </c>
@@ -11045,7 +10886,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>150</v>
       </c>
@@ -11065,7 +10906,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>150</v>
       </c>
@@ -11085,7 +10926,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>150</v>
       </c>
@@ -11105,7 +10946,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>150</v>
       </c>
@@ -11125,7 +10966,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>150</v>
       </c>
@@ -11145,7 +10986,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>150</v>
       </c>
@@ -11165,7 +11006,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>150</v>
       </c>
@@ -11185,7 +11026,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>150</v>
       </c>
@@ -11205,7 +11046,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>150</v>
       </c>
@@ -11225,7 +11066,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>150</v>
       </c>
@@ -11243,7 +11084,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>150</v>
       </c>
@@ -11263,7 +11104,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>150</v>
       </c>
@@ -11281,7 +11122,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>150</v>
       </c>
@@ -11299,7 +11140,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>150</v>
       </c>
@@ -11317,7 +11158,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>150</v>
       </c>
@@ -11335,7 +11176,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>150</v>
       </c>
@@ -11353,7 +11194,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>150</v>
       </c>
@@ -11371,7 +11212,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>150</v>
       </c>
@@ -11389,7 +11230,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>150</v>
       </c>
@@ -11407,7 +11248,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>150</v>
       </c>
@@ -11425,7 +11266,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
@@ -11443,7 +11284,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
@@ -11461,7 +11302,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>150</v>
       </c>
@@ -11479,7 +11320,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>150</v>
       </c>
@@ -11497,7 +11338,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>150</v>
       </c>
@@ -11515,7 +11356,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>150</v>
       </c>
@@ -11535,7 +11376,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>150</v>
       </c>
@@ -11555,7 +11396,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>150</v>
       </c>
@@ -11575,7 +11416,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>150</v>
       </c>
@@ -11595,7 +11436,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -11615,7 +11456,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>150</v>
       </c>
@@ -11633,7 +11474,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>150</v>
       </c>
@@ -11651,7 +11492,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>150</v>
       </c>
@@ -11669,7 +11510,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -11687,7 +11528,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>150</v>
       </c>
@@ -11705,7 +11546,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>150</v>
       </c>
@@ -11723,7 +11564,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>150</v>
       </c>
@@ -11741,7 +11582,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>150</v>
       </c>
@@ -11759,7 +11600,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>150</v>
       </c>
@@ -11777,7 +11618,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>150</v>
       </c>
@@ -11795,7 +11636,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>150</v>
       </c>
@@ -11813,7 +11654,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>150</v>
       </c>
@@ -11831,7 +11672,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
@@ -11849,7 +11690,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>150</v>
       </c>
@@ -11869,7 +11710,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>150</v>
       </c>
@@ -11889,7 +11730,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>150</v>
       </c>
@@ -11909,7 +11750,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>150</v>
       </c>
@@ -11929,7 +11770,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>150</v>
       </c>
@@ -11949,7 +11790,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -11969,7 +11810,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
@@ -11989,7 +11830,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -12009,7 +11850,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -12029,7 +11870,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -12049,7 +11890,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>150</v>
       </c>
@@ -12069,7 +11910,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>150</v>
       </c>
@@ -12089,7 +11930,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>150</v>
       </c>
@@ -12109,7 +11950,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>150</v>
       </c>
@@ -12129,7 +11970,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>150</v>
       </c>
@@ -12147,7 +11988,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>150</v>
       </c>
@@ -12165,7 +12006,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>150</v>
       </c>
@@ -12183,7 +12024,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>150</v>
       </c>
@@ -12201,7 +12042,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>150</v>
       </c>
@@ -12219,7 +12060,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>150</v>
       </c>
@@ -12237,7 +12078,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>150</v>
       </c>
@@ -12255,7 +12096,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>150</v>
       </c>
@@ -12273,7 +12114,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>150</v>
       </c>
@@ -12291,7 +12132,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>150</v>
       </c>
@@ -12309,7 +12150,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>150</v>
       </c>
@@ -12327,7 +12168,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>150</v>
       </c>
@@ -12345,7 +12186,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>150</v>
       </c>
@@ -12363,7 +12204,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>150</v>
       </c>
@@ -12381,7 +12222,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>150</v>
       </c>
@@ -12399,7 +12240,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>150</v>
       </c>
@@ -12417,7 +12258,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>150</v>
       </c>
@@ -12435,7 +12276,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>150</v>
       </c>
@@ -12453,7 +12294,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="363" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>150</v>
       </c>
@@ -12471,7 +12312,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>150</v>
       </c>
@@ -12489,7 +12330,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>150</v>
       </c>
@@ -12507,7 +12348,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>150</v>
       </c>
@@ -12525,7 +12366,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>150</v>
       </c>
@@ -12543,7 +12384,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>150</v>
       </c>
@@ -12561,7 +12402,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>150</v>
       </c>
@@ -12579,7 +12420,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>150</v>
       </c>
@@ -12597,7 +12438,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>150</v>
       </c>
@@ -12615,7 +12456,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>150</v>
       </c>
@@ -12633,7 +12474,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>150</v>
       </c>
@@ -12651,7 +12492,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>150</v>
       </c>
@@ -12671,7 +12512,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>150</v>
       </c>
@@ -12691,7 +12532,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>150</v>
       </c>
@@ -12711,7 +12552,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>150</v>
       </c>
@@ -12731,7 +12572,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>150</v>
       </c>
@@ -12751,7 +12592,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>150</v>
       </c>
@@ -12771,7 +12612,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>150</v>
       </c>
@@ -12791,7 +12632,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>150</v>
       </c>
@@ -12811,7 +12652,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>150</v>
       </c>
@@ -12829,7 +12670,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>150</v>
       </c>
@@ -12847,7 +12688,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>150</v>
       </c>
@@ -12865,7 +12706,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>150</v>
       </c>
@@ -12883,7 +12724,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>150</v>
       </c>
@@ -12901,7 +12742,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>150</v>
       </c>
@@ -12919,7 +12760,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>150</v>
       </c>
@@ -12937,7 +12778,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>150</v>
       </c>
@@ -12955,7 +12796,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>150</v>
       </c>
@@ -12975,7 +12816,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>150</v>
       </c>
@@ -12995,7 +12836,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>150</v>
       </c>
@@ -13015,7 +12856,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>150</v>
       </c>
@@ -13035,7 +12876,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>150</v>
       </c>
@@ -13055,7 +12896,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>150</v>
       </c>
@@ -13075,7 +12916,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>150</v>
       </c>
@@ -13095,7 +12936,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>150</v>
       </c>
@@ -13115,7 +12956,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>150</v>
       </c>
@@ -13135,7 +12976,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>150</v>
       </c>
@@ -13155,7 +12996,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>150</v>
       </c>
@@ -13175,7 +13016,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>150</v>
       </c>
@@ -13195,7 +13036,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>150</v>
       </c>
@@ -13215,7 +13056,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>150</v>
       </c>
@@ -13235,7 +13076,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>150</v>
       </c>
@@ -13255,7 +13096,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>150</v>
       </c>
@@ -13275,7 +13116,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>150</v>
       </c>
@@ -13295,7 +13136,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>150</v>
       </c>
@@ -13315,7 +13156,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>150</v>
       </c>
@@ -13335,7 +13176,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>150</v>
       </c>
@@ -13355,7 +13196,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>150</v>
       </c>
@@ -13375,7 +13216,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>150</v>
       </c>
@@ -13395,7 +13236,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>150</v>
       </c>
@@ -13415,7 +13256,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>150</v>
       </c>
@@ -13435,7 +13276,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>150</v>
       </c>
@@ -13455,7 +13296,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>150</v>
       </c>
@@ -13475,7 +13316,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>150</v>
       </c>
@@ -13495,7 +13336,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>150</v>
       </c>
@@ -13515,7 +13356,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>150</v>
       </c>
@@ -13535,7 +13376,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>150</v>
       </c>
@@ -13555,7 +13396,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>150</v>
       </c>
@@ -13575,7 +13416,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>150</v>
       </c>
@@ -13595,7 +13436,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>150</v>
       </c>
@@ -13615,7 +13456,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>150</v>
       </c>
@@ -13635,7 +13476,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>150</v>
       </c>
@@ -13655,7 +13496,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>150</v>
       </c>
@@ -13675,7 +13516,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>150</v>
       </c>
@@ -13695,7 +13536,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>150</v>
       </c>
@@ -13715,7 +13556,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>150</v>
       </c>
@@ -13735,7 +13576,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>150</v>
       </c>
@@ -13755,7 +13596,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>150</v>
       </c>
@@ -13775,7 +13616,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
         <v>150</v>
       </c>
@@ -13795,7 +13636,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>150</v>
       </c>
@@ -13815,7 +13656,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>150</v>
       </c>
@@ -13835,7 +13676,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>150</v>
       </c>
@@ -13855,7 +13696,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>150</v>
       </c>
@@ -13875,7 +13716,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>150</v>
       </c>
@@ -13895,7 +13736,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>150</v>
       </c>
@@ -13915,7 +13756,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>150</v>
       </c>
@@ -13935,7 +13776,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>150</v>
       </c>
@@ -13955,7 +13796,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>150</v>
       </c>
@@ -13975,7 +13816,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>150</v>
       </c>
@@ -13995,7 +13836,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
         <v>150</v>
       </c>
@@ -14015,7 +13856,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
         <v>150</v>
       </c>
@@ -14035,7 +13876,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
         <v>150</v>
       </c>
@@ -14055,7 +13896,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>150</v>
       </c>
@@ -14075,7 +13916,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>150</v>
       </c>
@@ -14095,7 +13936,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>150</v>
       </c>
@@ -14115,7 +13956,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
         <v>150</v>
       </c>
@@ -14135,7 +13976,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
         <v>150</v>
       </c>
@@ -14155,7 +13996,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
         <v>150</v>
       </c>
@@ -14175,7 +14016,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
         <v>150</v>
       </c>
@@ -14195,7 +14036,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
         <v>150</v>
       </c>
@@ -14215,7 +14056,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
         <v>150</v>
       </c>
@@ -14235,7 +14076,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>150</v>
       </c>
@@ -14255,7 +14096,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>150</v>
       </c>
@@ -14275,7 +14116,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
         <v>150</v>
       </c>
@@ -14295,7 +14136,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
         <v>150</v>
       </c>
@@ -14315,7 +14156,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
         <v>150</v>
       </c>
@@ -14335,7 +14176,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
         <v>150</v>
       </c>
@@ -14355,7 +14196,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
         <v>150</v>
       </c>
@@ -14375,7 +14216,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
         <v>150</v>
       </c>
@@ -14395,7 +14236,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
         <v>150</v>
       </c>
@@ -14415,7 +14256,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
         <v>150</v>
       </c>
@@ -14435,7 +14276,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
         <v>150</v>
       </c>
@@ -14455,7 +14296,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
         <v>150</v>
       </c>
@@ -14475,7 +14316,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>150</v>
       </c>
@@ -14495,7 +14336,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
         <v>150</v>
       </c>
@@ -14515,7 +14356,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
         <v>150</v>
       </c>
@@ -14535,7 +14376,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
         <v>150</v>
       </c>
@@ -14555,7 +14396,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>150</v>
       </c>
@@ -14575,7 +14416,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>150</v>
       </c>
@@ -14595,7 +14436,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>150</v>
       </c>
@@ -14615,7 +14456,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>150</v>
       </c>
@@ -14635,7 +14476,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
         <v>150</v>
       </c>
@@ -14655,7 +14496,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
         <v>150</v>
       </c>
@@ -14675,7 +14516,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
         <v>150</v>
       </c>
@@ -14695,7 +14536,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
         <v>150</v>
       </c>
@@ -14715,7 +14556,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
         <v>150</v>
       </c>
@@ -14735,7 +14576,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
         <v>150</v>
       </c>
@@ -14755,7 +14596,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
         <v>150</v>
       </c>
@@ -14775,7 +14616,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
         <v>150</v>
       </c>
@@ -14795,7 +14636,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
         <v>150</v>
       </c>
@@ -14815,7 +14656,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
         <v>150</v>
       </c>
@@ -14835,7 +14676,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
         <v>150</v>
       </c>
@@ -14855,7 +14696,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>150</v>
       </c>
@@ -14875,7 +14716,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
         <v>150</v>
       </c>
@@ -14895,7 +14736,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>150</v>
       </c>
@@ -14915,7 +14756,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
         <v>150</v>
       </c>
@@ -14935,7 +14776,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
         <v>150</v>
       </c>
@@ -14955,7 +14796,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>150</v>
       </c>
@@ -14975,7 +14816,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
         <v>150</v>
       </c>
@@ -14995,7 +14836,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
         <v>150</v>
       </c>
@@ -15015,7 +14856,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
         <v>150</v>
       </c>
@@ -15035,7 +14876,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
         <v>150</v>
       </c>
@@ -15055,7 +14896,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
         <v>150</v>
       </c>
@@ -15075,7 +14916,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
         <v>150</v>
       </c>
@@ -15095,7 +14936,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
         <v>150</v>
       </c>
@@ -15115,7 +14956,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
         <v>150</v>
       </c>
@@ -15135,7 +14976,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
         <v>150</v>
       </c>
@@ -15155,7 +14996,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
         <v>150</v>
       </c>
@@ -15175,7 +15016,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
         <v>150</v>
       </c>
@@ -15195,7 +15036,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
         <v>150</v>
       </c>
@@ -15215,7 +15056,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
         <v>150</v>
       </c>
@@ -15235,7 +15076,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
         <v>150</v>
       </c>
@@ -15255,7 +15096,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
         <v>150</v>
       </c>
@@ -15275,7 +15116,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
         <v>150</v>
       </c>
@@ -15295,7 +15136,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>150</v>
       </c>
@@ -15315,7 +15156,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
         <v>150</v>
       </c>
@@ -15335,7 +15176,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>150</v>
       </c>
@@ -15355,7 +15196,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
         <v>150</v>
       </c>
@@ -15375,7 +15216,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
         <v>150</v>
       </c>
@@ -15395,7 +15236,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>150</v>
       </c>
@@ -15415,7 +15256,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
         <v>150</v>
       </c>
@@ -15435,7 +15276,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
         <v>150</v>
       </c>
@@ -15455,7 +15296,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
         <v>150</v>
       </c>
@@ -15475,7 +15316,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
         <v>150</v>
       </c>
@@ -15495,7 +15336,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
         <v>150</v>
       </c>
@@ -15515,7 +15356,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
         <v>150</v>
       </c>
@@ -15535,7 +15376,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>150</v>
       </c>
@@ -15555,7 +15396,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
         <v>150</v>
       </c>
@@ -15575,7 +15416,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
         <v>150</v>
       </c>
@@ -15595,7 +15436,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>150</v>
       </c>
@@ -15615,7 +15456,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>150</v>
       </c>
@@ -15635,7 +15476,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>150</v>
       </c>
@@ -15655,7 +15496,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>150</v>
       </c>
@@ -15675,7 +15516,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>150</v>
       </c>
@@ -15695,7 +15536,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
         <v>150</v>
       </c>
@@ -15715,7 +15556,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
         <v>150</v>
       </c>
@@ -15735,7 +15576,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
         <v>150</v>
       </c>
@@ -15755,7 +15596,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
         <v>150</v>
       </c>
@@ -15775,7 +15616,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
         <v>150</v>
       </c>
@@ -15795,7 +15636,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>150</v>
       </c>
@@ -15815,7 +15656,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>150</v>
       </c>
@@ -15835,7 +15676,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>150</v>
       </c>
@@ -15855,7 +15696,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>150</v>
       </c>
@@ -15875,7 +15716,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>150</v>
       </c>
@@ -15895,7 +15736,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
         <v>150</v>
       </c>
@@ -15915,7 +15756,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>150</v>
       </c>
@@ -15935,7 +15776,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>150</v>
       </c>
@@ -15955,7 +15796,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
         <v>150</v>
       </c>
@@ -15975,7 +15816,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>150</v>
       </c>
@@ -15995,7 +15836,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
         <v>150</v>
       </c>
@@ -16015,7 +15856,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>150</v>
       </c>
@@ -16035,7 +15876,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>150</v>
       </c>
@@ -16055,7 +15896,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>150</v>
       </c>
@@ -16075,7 +15916,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>150</v>
       </c>
@@ -16095,7 +15936,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>150</v>
       </c>
@@ -16115,7 +15956,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>150</v>
       </c>
@@ -16135,7 +15976,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>150</v>
       </c>
@@ -16155,7 +15996,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>150</v>
       </c>
@@ -16175,7 +16016,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>150</v>
       </c>
@@ -16195,7 +16036,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>150</v>
       </c>
@@ -16215,7 +16056,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>150</v>
       </c>
@@ -16235,7 +16076,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>150</v>
       </c>
@@ -16255,7 +16096,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>150</v>
       </c>
@@ -16275,7 +16116,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>150</v>
       </c>
@@ -16295,7 +16136,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
         <v>150</v>
       </c>
@@ -16315,7 +16156,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>150</v>
       </c>
@@ -16335,7 +16176,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>150</v>
       </c>
@@ -16355,7 +16196,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
         <v>150</v>
       </c>
@@ -16373,7 +16214,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
         <v>150</v>
       </c>
@@ -16393,7 +16234,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>150</v>
       </c>
@@ -16413,7 +16254,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
         <v>150</v>
       </c>
@@ -16433,7 +16274,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>150</v>
       </c>
@@ -16453,7 +16294,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>150</v>
       </c>
@@ -16473,7 +16314,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
         <v>150</v>
       </c>
@@ -16493,7 +16334,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
         <v>150</v>
       </c>
@@ -16513,7 +16354,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
         <v>150</v>
       </c>
@@ -16533,7 +16374,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
         <v>150</v>
       </c>
@@ -16553,7 +16394,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>150</v>
       </c>
@@ -16573,7 +16414,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
         <v>150</v>
       </c>
@@ -16593,7 +16434,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
         <v>151</v>
       </c>
@@ -16613,7 +16454,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
         <v>151</v>
       </c>
@@ -16633,7 +16474,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
         <v>151</v>
       </c>
@@ -16653,7 +16494,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
         <v>151</v>
       </c>
@@ -16673,7 +16514,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>151</v>
       </c>
@@ -16693,7 +16534,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>151</v>
       </c>
@@ -16713,7 +16554,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
         <v>151</v>
       </c>
@@ -16733,7 +16574,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
         <v>151</v>
       </c>
@@ -16753,7 +16594,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>151</v>
       </c>
@@ -16773,7 +16614,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
         <v>151</v>
       </c>
@@ -16793,7 +16634,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
         <v>151</v>
       </c>
@@ -16813,7 +16654,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>151</v>
       </c>
@@ -16833,7 +16674,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>151</v>
       </c>
@@ -16853,7 +16694,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
         <v>151</v>
       </c>
@@ -16873,7 +16714,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
         <v>151</v>
       </c>
@@ -16893,7 +16734,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
         <v>151</v>
       </c>
@@ -16913,7 +16754,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
         <v>151</v>
       </c>
@@ -16933,7 +16774,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
         <v>151</v>
       </c>
@@ -16953,7 +16794,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
         <v>151</v>
       </c>
@@ -16993,7 +16834,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A404" s="2" t="s">
         <v>151</v>
       </c>
@@ -17013,7 +16854,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
         <v>151</v>
       </c>
@@ -17033,7 +16874,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
         <v>151</v>
       </c>
@@ -17053,7 +16894,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A407" s="2" t="s">
         <v>151</v>
       </c>
@@ -17073,7 +16914,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
         <v>151</v>
       </c>
@@ -17093,7 +16934,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
         <v>151</v>
       </c>
@@ -17113,7 +16954,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A410" s="2" t="s">
         <v>151</v>
       </c>
@@ -17133,7 +16974,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
         <v>151</v>
       </c>
@@ -17153,7 +16994,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
         <v>151</v>
       </c>
@@ -17173,7 +17014,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
         <v>151</v>
       </c>
@@ -17193,7 +17034,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A414" s="2" t="s">
         <v>151</v>
       </c>
@@ -17213,7 +17054,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
         <v>151</v>
       </c>
@@ -17233,7 +17074,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
         <v>151</v>
       </c>
@@ -17253,7 +17094,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A417" s="2" t="s">
         <v>151</v>
       </c>
@@ -17273,7 +17114,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A418" s="2" t="s">
         <v>151</v>
       </c>
@@ -17293,7 +17134,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="330" x14ac:dyDescent="0.15">
       <c r="A419" s="2" t="s">
         <v>151</v>
       </c>
@@ -17313,7 +17154,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A420" s="2" t="s">
         <v>151</v>
       </c>
@@ -17333,7 +17174,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A421" s="2" t="s">
         <v>151</v>
       </c>
@@ -17353,7 +17194,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>151</v>
       </c>
@@ -17373,7 +17214,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>151</v>
       </c>
@@ -17393,7 +17234,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>151</v>
       </c>
@@ -17413,7 +17254,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>151</v>
       </c>
@@ -17433,7 +17274,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>151</v>
       </c>
@@ -17453,7 +17294,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>151</v>
       </c>
@@ -17473,7 +17314,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>151</v>
       </c>
@@ -17493,7 +17334,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>151</v>
       </c>
@@ -17513,7 +17354,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>151</v>
       </c>
@@ -17533,7 +17374,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>151</v>
       </c>
@@ -17553,7 +17394,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>151</v>
       </c>
@@ -17573,7 +17414,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A433" s="2" t="s">
         <v>151</v>
       </c>
@@ -17593,7 +17434,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A434" s="2" t="s">
         <v>151</v>
       </c>
@@ -17613,7 +17454,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A435" s="2" t="s">
         <v>151</v>
       </c>
@@ -17633,7 +17474,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A436" s="2" t="s">
         <v>151</v>
       </c>
@@ -17653,7 +17494,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A437" s="2" t="s">
         <v>151</v>
       </c>
@@ -17673,7 +17514,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A438" s="2" t="s">
         <v>151</v>
       </c>
@@ -17693,7 +17534,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A439" s="2" t="s">
         <v>151</v>
       </c>
@@ -17713,7 +17554,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A440" s="2" t="s">
         <v>151</v>
       </c>
@@ -17733,7 +17574,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A441" s="2" t="s">
         <v>151</v>
       </c>
@@ -17753,7 +17594,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A442" s="2" t="s">
         <v>151</v>
       </c>
@@ -17773,7 +17614,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A443" s="2" t="s">
         <v>151</v>
       </c>
@@ -17793,7 +17634,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A444" s="2" t="s">
         <v>151</v>
       </c>
@@ -17813,7 +17654,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A445" s="2" t="s">
         <v>151</v>
       </c>
@@ -17833,7 +17674,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A446" s="2" t="s">
         <v>151</v>
       </c>
@@ -17853,7 +17694,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A447" s="2" t="s">
         <v>151</v>
       </c>
@@ -17873,7 +17714,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A448" s="2" t="s">
         <v>151</v>
       </c>
@@ -17893,7 +17734,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A449" s="2" t="s">
         <v>151</v>
       </c>
@@ -17913,7 +17754,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A450" s="2" t="s">
         <v>151</v>
       </c>
@@ -17933,7 +17774,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A451" s="2" t="s">
         <v>151</v>
       </c>
@@ -17953,7 +17794,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A452" s="2" t="s">
         <v>151</v>
       </c>
@@ -17973,7 +17814,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A453" s="2" t="s">
         <v>151</v>
       </c>
@@ -17993,7 +17834,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A454" s="2" t="s">
         <v>151</v>
       </c>
@@ -18013,7 +17854,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A455" s="2" t="s">
         <v>151</v>
       </c>
@@ -18033,7 +17874,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A456" s="2" t="s">
         <v>151</v>
       </c>
@@ -18053,7 +17894,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A457" s="2" t="s">
         <v>151</v>
       </c>
@@ -18073,7 +17914,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A458" s="2" t="s">
         <v>151</v>
       </c>
@@ -18093,7 +17934,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A459" s="2" t="s">
         <v>151</v>
       </c>
@@ -18113,7 +17954,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A460" s="2" t="s">
         <v>151</v>
       </c>
@@ -18133,7 +17974,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A461" s="2" t="s">
         <v>151</v>
       </c>
@@ -18153,7 +17994,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A462" s="2" t="s">
         <v>151</v>
       </c>
@@ -18173,7 +18014,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A463" s="2" t="s">
         <v>151</v>
       </c>
@@ -18193,7 +18034,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A464" s="2" t="s">
         <v>152</v>
       </c>
@@ -18213,7 +18054,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A465" s="2" t="s">
         <v>152</v>
       </c>
@@ -18233,7 +18074,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A466" s="2" t="s">
         <v>152</v>
       </c>
@@ -18253,7 +18094,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A467" s="2" t="s">
         <v>152</v>
       </c>
@@ -18273,7 +18114,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A468" s="2" t="s">
         <v>152</v>
       </c>
@@ -18293,7 +18134,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A469" s="2" t="s">
         <v>152</v>
       </c>
@@ -18313,7 +18154,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A470" s="2" t="s">
         <v>152</v>
       </c>
@@ -18333,7 +18174,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A471" s="2" t="s">
         <v>152</v>
       </c>
@@ -18353,7 +18194,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A472" s="2" t="s">
         <v>152</v>
       </c>
@@ -18373,7 +18214,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" ht="264" x14ac:dyDescent="0.15">
       <c r="A473" s="2" t="s">
         <v>152</v>
       </c>
@@ -18393,7 +18234,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A474" s="2" t="s">
         <v>152</v>
       </c>
@@ -18413,7 +18254,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A475" s="2" t="s">
         <v>152</v>
       </c>
@@ -18433,7 +18274,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A476" s="2" t="s">
         <v>152</v>
       </c>
@@ -18453,7 +18294,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A477" s="2" t="s">
         <v>152</v>
       </c>
@@ -18473,7 +18314,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A478" s="2" t="s">
         <v>152</v>
       </c>
@@ -18493,7 +18334,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A479" s="2" t="s">
         <v>152</v>
       </c>
@@ -18513,7 +18354,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A480" s="2" t="s">
         <v>152</v>
       </c>
@@ -18533,7 +18374,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A481" s="2" t="s">
         <v>152</v>
       </c>
@@ -18553,7 +18394,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A482" s="2" t="s">
         <v>152</v>
       </c>
@@ -18573,7 +18414,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A483" s="2" t="s">
         <v>152</v>
       </c>
@@ -18593,7 +18434,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A484" s="2" t="s">
         <v>152</v>
       </c>
@@ -18613,7 +18454,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A485" s="2" t="s">
         <v>152</v>
       </c>
@@ -18633,7 +18474,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A486" s="2" t="s">
         <v>152</v>
       </c>
@@ -18653,7 +18494,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A487" s="2" t="s">
         <v>152</v>
       </c>
@@ -18673,7 +18514,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A488" s="2" t="s">
         <v>152</v>
       </c>
@@ -18693,7 +18534,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A489" s="2" t="s">
         <v>152</v>
       </c>
@@ -18713,7 +18554,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A490" s="2" t="s">
         <v>152</v>
       </c>
@@ -18733,7 +18574,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>152</v>
       </c>
@@ -18753,7 +18594,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>152</v>
       </c>
@@ -18773,7 +18614,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" ht="99" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>152</v>
       </c>
@@ -18793,7 +18634,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A494" s="2" t="s">
         <v>152</v>
       </c>
@@ -18813,7 +18654,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A495" s="2" t="s">
         <v>152</v>
       </c>
@@ -18833,7 +18674,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A496" s="2" t="s">
         <v>152</v>
       </c>
@@ -18853,7 +18694,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A497" s="2" t="s">
         <v>152</v>
       </c>
@@ -18873,7 +18714,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A498" s="2" t="s">
         <v>152</v>
       </c>
@@ -18893,7 +18734,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A499" s="2" t="s">
         <v>152</v>
       </c>
@@ -18913,7 +18754,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A500" s="2" t="s">
         <v>152</v>
       </c>
@@ -18933,7 +18774,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A501" s="2" t="s">
         <v>152</v>
       </c>
@@ -18953,7 +18794,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A502" s="2" t="s">
         <v>152</v>
       </c>
@@ -18973,7 +18814,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A503" s="2" t="s">
         <v>152</v>
       </c>
@@ -18993,7 +18834,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A504" s="2" t="s">
         <v>152</v>
       </c>
@@ -19013,7 +18854,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A505" s="2" t="s">
         <v>152</v>
       </c>
@@ -19033,7 +18874,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A506" s="2" t="s">
         <v>152</v>
       </c>
@@ -19053,7 +18894,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A507" s="2" t="s">
         <v>152</v>
       </c>
@@ -19073,7 +18914,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A508" s="2" t="s">
         <v>152</v>
       </c>
@@ -19093,7 +18934,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A509" s="2" t="s">
         <v>152</v>
       </c>
@@ -19113,7 +18954,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A510" s="2" t="s">
         <v>152</v>
       </c>
@@ -19133,7 +18974,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A511" s="2" t="s">
         <v>152</v>
       </c>
@@ -19153,7 +18994,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A512" s="2" t="s">
         <v>152</v>
       </c>
@@ -19173,7 +19014,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A513" s="2" t="s">
         <v>152</v>
       </c>
@@ -19193,7 +19034,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A514" s="2" t="s">
         <v>152</v>
       </c>
@@ -19213,7 +19054,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A515" s="2" t="s">
         <v>152</v>
       </c>
@@ -19233,7 +19074,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A516" s="2" t="s">
         <v>152</v>
       </c>
@@ -19253,7 +19094,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A517" s="2" t="s">
         <v>152</v>
       </c>
@@ -19273,7 +19114,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A518" s="2" t="s">
         <v>152</v>
       </c>
@@ -19293,7 +19134,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A519" s="2" t="s">
         <v>152</v>
       </c>
@@ -19313,7 +19154,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A520" s="2" t="s">
         <v>152</v>
       </c>
@@ -19333,7 +19174,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A521" s="2" t="s">
         <v>152</v>
       </c>
@@ -19353,7 +19194,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A522" s="2" t="s">
         <v>152</v>
       </c>
@@ -19373,7 +19214,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A523" s="2" t="s">
         <v>152</v>
       </c>
@@ -19393,7 +19234,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A524" s="2" t="s">
         <v>152</v>
       </c>
@@ -19413,7 +19254,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A525" s="2" t="s">
         <v>152</v>
       </c>
@@ -19433,7 +19274,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A526" s="2" t="s">
         <v>152</v>
       </c>
@@ -19453,7 +19294,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A527" s="2" t="s">
         <v>152</v>
       </c>
@@ -19473,7 +19314,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A528" s="2" t="s">
         <v>152</v>
       </c>
@@ -19493,7 +19334,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A529" s="2" t="s">
         <v>152</v>
       </c>
@@ -19513,7 +19354,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A530" s="2" t="s">
         <v>152</v>
       </c>
@@ -19533,7 +19374,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A531" s="2" t="s">
         <v>152</v>
       </c>
@@ -19553,7 +19394,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A532" s="2" t="s">
         <v>152</v>
       </c>
@@ -19573,7 +19414,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A533" s="2" t="s">
         <v>152</v>
       </c>
@@ -19593,7 +19434,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A534" s="2" t="s">
         <v>152</v>
       </c>
@@ -19613,7 +19454,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A535" s="2" t="s">
         <v>152</v>
       </c>
@@ -19633,7 +19474,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A536" s="2" t="s">
         <v>152</v>
       </c>
@@ -19653,7 +19494,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A537" s="2" t="s">
         <v>152</v>
       </c>
@@ -19673,7 +19514,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A538" s="2" t="s">
         <v>152</v>
       </c>
@@ -19693,7 +19534,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A539" s="2" t="s">
         <v>152</v>
       </c>
@@ -19713,7 +19554,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A540" s="2" t="s">
         <v>152</v>
       </c>
@@ -19733,7 +19574,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A541" s="2" t="s">
         <v>152</v>
       </c>
@@ -19753,7 +19594,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A542" s="2" t="s">
         <v>152</v>
       </c>
@@ -19773,7 +19614,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A543" s="2" t="s">
         <v>152</v>
       </c>
@@ -19793,7 +19634,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A544" s="2" t="s">
         <v>152</v>
       </c>
@@ -19813,7 +19654,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A545" s="2" t="s">
         <v>152</v>
       </c>
@@ -19833,7 +19674,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A546" s="2" t="s">
         <v>152</v>
       </c>
@@ -19853,7 +19694,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A547" s="2" t="s">
         <v>152</v>
       </c>
@@ -19873,7 +19714,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A548" s="2" t="s">
         <v>152</v>
       </c>
@@ -19893,7 +19734,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A549" s="2" t="s">
         <v>152</v>
       </c>
@@ -19913,7 +19754,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A550" s="2" t="s">
         <v>152</v>
       </c>
@@ -19933,7 +19774,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A551" s="2" t="s">
         <v>152</v>
       </c>
@@ -19953,7 +19794,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A552" s="2" t="s">
         <v>152</v>
       </c>
@@ -19973,7 +19814,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A553" s="2" t="s">
         <v>152</v>
       </c>
@@ -19993,7 +19834,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A554" s="2" t="s">
         <v>152</v>
       </c>
@@ -20033,7 +19874,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A556" s="2" t="s">
         <v>152</v>
       </c>
@@ -20053,7 +19894,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A557" s="2" t="s">
         <v>152</v>
       </c>
@@ -20073,7 +19914,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A558" s="2" t="s">
         <v>152</v>
       </c>
@@ -20093,7 +19934,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A559" s="2" t="s">
         <v>152</v>
       </c>
@@ -20113,7 +19954,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A560" s="2" t="s">
         <v>152</v>
       </c>
@@ -20133,7 +19974,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6" ht="198" x14ac:dyDescent="0.15">
       <c r="A561" s="2" t="s">
         <v>152</v>
       </c>
@@ -20153,7 +19994,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A562" s="2" t="s">
         <v>152</v>
       </c>
@@ -20173,7 +20014,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A563" s="2" t="s">
         <v>152</v>
       </c>
@@ -20193,7 +20034,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A564" s="2" t="s">
         <v>152</v>
       </c>
@@ -20213,7 +20054,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A565" s="2" t="s">
         <v>152</v>
       </c>
@@ -20233,7 +20074,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6" ht="297" x14ac:dyDescent="0.15">
       <c r="A566" s="2" t="s">
         <v>152</v>
       </c>
@@ -20253,7 +20094,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A567" s="2" t="s">
         <v>152</v>
       </c>
@@ -20273,7 +20114,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A568" s="2" t="s">
         <v>152</v>
       </c>
@@ -20293,7 +20134,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A569" s="2" t="s">
         <v>152</v>
       </c>
@@ -20313,7 +20154,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A570" s="2" t="s">
         <v>152</v>
       </c>
@@ -20333,7 +20174,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A571" s="2" t="s">
         <v>152</v>
       </c>
@@ -20353,7 +20194,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A572" s="2" t="s">
         <v>152</v>
       </c>
@@ -20373,7 +20214,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A573" s="2" t="s">
         <v>152</v>
       </c>
@@ -20393,7 +20234,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A574" s="2" t="s">
         <v>152</v>
       </c>
@@ -20413,7 +20254,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A575" s="2" t="s">
         <v>152</v>
       </c>
@@ -20433,7 +20274,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A576" s="2" t="s">
         <v>152</v>
       </c>
@@ -20453,7 +20294,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A577" s="2" t="s">
         <v>152</v>
       </c>
@@ -20473,7 +20314,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A578" s="2" t="s">
         <v>152</v>
       </c>
@@ -20493,7 +20334,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A579" s="2" t="s">
         <v>152</v>
       </c>
@@ -20513,7 +20354,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A580" s="2" t="s">
         <v>152</v>
       </c>
@@ -20533,7 +20374,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A581" s="2" t="s">
         <v>152</v>
       </c>
@@ -20553,7 +20394,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A582" s="2" t="s">
         <v>152</v>
       </c>
@@ -20573,7 +20414,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A583" s="2" t="s">
         <v>152</v>
       </c>
@@ -20593,7 +20434,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A584" s="2" t="s">
         <v>152</v>
       </c>
@@ -20613,7 +20454,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A585" s="2" t="s">
         <v>152</v>
       </c>
@@ -20633,7 +20474,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:6" ht="99" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>152</v>
       </c>
@@ -20653,7 +20494,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>152</v>
       </c>
@@ -20673,7 +20514,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>152</v>
       </c>
@@ -20693,7 +20534,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>152</v>
       </c>
@@ -20713,7 +20554,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>152</v>
       </c>
@@ -20733,7 +20574,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>152</v>
       </c>
@@ -20753,7 +20594,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>152</v>
       </c>
@@ -20773,7 +20614,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>152</v>
       </c>
@@ -20793,7 +20634,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>152</v>
       </c>
@@ -20813,7 +20654,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>152</v>
       </c>
@@ -20833,7 +20674,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>152</v>
       </c>
@@ -20853,7 +20694,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>152</v>
       </c>
@@ -20873,7 +20714,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>152</v>
       </c>
@@ -20893,7 +20734,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>152</v>
       </c>
@@ -20913,7 +20754,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>152</v>
       </c>
@@ -20933,7 +20774,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>152</v>
       </c>
@@ -20953,7 +20794,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>152</v>
       </c>
@@ -20973,7 +20814,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>152</v>
       </c>
@@ -20993,7 +20834,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>152</v>
       </c>
@@ -21013,7 +20854,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>152</v>
       </c>
@@ -21033,7 +20874,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>152</v>
       </c>
@@ -21053,7 +20894,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>152</v>
       </c>
@@ -21073,7 +20914,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>152</v>
       </c>
@@ -21093,7 +20934,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A609" s="2" t="s">
         <v>152</v>
       </c>
@@ -21113,7 +20954,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>152</v>
       </c>
@@ -21133,7 +20974,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A611" s="2" t="s">
         <v>152</v>
       </c>
@@ -21153,7 +20994,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
         <v>152</v>
       </c>
@@ -21173,7 +21014,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
         <v>152</v>
       </c>
@@ -21193,7 +21034,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
         <v>152</v>
       </c>
@@ -21213,7 +21054,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
         <v>152</v>
       </c>
@@ -21233,7 +21074,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
         <v>152</v>
       </c>
@@ -21253,7 +21094,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
         <v>152</v>
       </c>
@@ -21273,7 +21114,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
         <v>152</v>
       </c>
@@ -21293,7 +21134,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
         <v>152</v>
       </c>
@@ -21313,7 +21154,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
         <v>152</v>
       </c>
@@ -21333,7 +21174,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
         <v>152</v>
       </c>
@@ -21353,7 +21194,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
         <v>152</v>
       </c>
@@ -21373,7 +21214,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
         <v>152</v>
       </c>
@@ -21393,7 +21234,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
         <v>152</v>
       </c>
@@ -21413,7 +21254,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A625" s="2" t="s">
         <v>152</v>
       </c>
@@ -21433,7 +21274,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A626" s="2" t="s">
         <v>152</v>
       </c>
@@ -21453,7 +21294,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A627" s="2" t="s">
         <v>152</v>
       </c>
@@ -21473,7 +21314,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A628" s="2" t="s">
         <v>152</v>
       </c>
@@ -21493,7 +21334,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A629" s="2" t="s">
         <v>152</v>
       </c>
@@ -21513,7 +21354,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A630" s="2" t="s">
         <v>152</v>
       </c>
@@ -21533,7 +21374,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A631" s="2" t="s">
         <v>152</v>
       </c>
@@ -21553,7 +21394,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A632" s="2" t="s">
         <v>152</v>
       </c>
@@ -21573,7 +21414,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A633" s="2" t="s">
         <v>152</v>
       </c>
@@ -21593,7 +21434,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A634" s="2" t="s">
         <v>152</v>
       </c>
@@ -21613,7 +21454,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A635" s="2" t="s">
         <v>152</v>
       </c>
@@ -21633,7 +21474,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A636" s="2" t="s">
         <v>152</v>
       </c>
@@ -21653,7 +21494,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A637" s="2" t="s">
         <v>152</v>
       </c>
@@ -21673,7 +21514,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A638" s="2" t="s">
         <v>152</v>
       </c>
@@ -21693,7 +21534,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A639" s="2" t="s">
         <v>152</v>
       </c>
@@ -21713,7 +21554,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A640" s="2" t="s">
         <v>152</v>
       </c>
@@ -21733,7 +21574,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A641" s="2" t="s">
         <v>152</v>
       </c>
@@ -21753,7 +21594,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A642" s="2" t="s">
         <v>152</v>
       </c>
@@ -21773,7 +21614,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A643" s="2" t="s">
         <v>152</v>
       </c>
@@ -21793,7 +21634,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A644" s="2" t="s">
         <v>152</v>
       </c>
@@ -21813,7 +21654,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A645" s="2" t="s">
         <v>152</v>
       </c>
@@ -21833,7 +21674,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A646" s="2" t="s">
         <v>152</v>
       </c>
@@ -21853,7 +21694,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A647" s="2" t="s">
         <v>152</v>
       </c>
@@ -21873,7 +21714,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A648" s="2" t="s">
         <v>152</v>
       </c>
@@ -21893,7 +21734,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A649" s="2" t="s">
         <v>152</v>
       </c>
@@ -21913,7 +21754,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A650" s="2" t="s">
         <v>152</v>
       </c>
@@ -21933,7 +21774,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A651" s="2" t="s">
         <v>152</v>
       </c>
@@ -21953,7 +21794,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A652" s="2" t="s">
         <v>152</v>
       </c>
@@ -21973,7 +21814,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A653" s="2" t="s">
         <v>152</v>
       </c>
@@ -21993,7 +21834,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A654" s="2" t="s">
         <v>152</v>
       </c>
@@ -22013,7 +21854,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A655" s="2" t="s">
         <v>152</v>
       </c>
@@ -22033,7 +21874,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A656" s="2" t="s">
         <v>152</v>
       </c>
@@ -22053,7 +21894,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A657" s="2" t="s">
         <v>152</v>
       </c>
@@ -22073,7 +21914,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A658" s="2" t="s">
         <v>152</v>
       </c>
@@ -22093,7 +21934,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A659" s="2" t="s">
         <v>152</v>
       </c>
@@ -22113,7 +21954,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A660" s="2" t="s">
         <v>152</v>
       </c>
@@ -22133,7 +21974,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A661" s="2" t="s">
         <v>152</v>
       </c>
@@ -22153,7 +21994,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A662" s="2" t="s">
         <v>152</v>
       </c>
@@ -22173,7 +22014,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A663" s="2" t="s">
         <v>152</v>
       </c>
@@ -22193,7 +22034,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A664" s="2" t="s">
         <v>152</v>
       </c>
@@ -22213,7 +22054,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A665" s="2" t="s">
         <v>152</v>
       </c>
@@ -22233,7 +22074,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A666" s="2" t="s">
         <v>152</v>
       </c>
@@ -22253,7 +22094,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A667" s="2" t="s">
         <v>152</v>
       </c>
@@ -22273,7 +22114,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A668" s="2" t="s">
         <v>152</v>
       </c>
@@ -22293,7 +22134,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A669" s="2" t="s">
         <v>152</v>
       </c>
@@ -22313,7 +22154,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A670" s="2" t="s">
         <v>152</v>
       </c>
@@ -22333,7 +22174,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A671" s="2" t="s">
         <v>152</v>
       </c>
@@ -22353,7 +22194,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A672" s="2" t="s">
         <v>152</v>
       </c>
@@ -22373,7 +22214,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A673" s="2" t="s">
         <v>152</v>
       </c>
@@ -22393,7 +22234,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A674" s="2" t="s">
         <v>152</v>
       </c>
@@ -22413,7 +22254,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A675" s="2" t="s">
         <v>152</v>
       </c>
@@ -22433,7 +22274,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A676" s="2" t="s">
         <v>152</v>
       </c>
@@ -22453,7 +22294,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A677" s="2" t="s">
         <v>152</v>
       </c>
@@ -22473,7 +22314,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
         <v>152</v>
       </c>
@@ -22493,7 +22334,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A679" s="2" t="s">
         <v>152</v>
       </c>
@@ -22513,7 +22354,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A680" s="2" t="s">
         <v>152</v>
       </c>
@@ -22533,7 +22374,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A681" s="2" t="s">
         <v>152</v>
       </c>
@@ -22553,7 +22394,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A682" s="2" t="s">
         <v>152</v>
       </c>
@@ -22573,7 +22414,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:6" ht="346.5" x14ac:dyDescent="0.15">
       <c r="A683" s="2" t="s">
         <v>152</v>
       </c>
@@ -22593,7 +22434,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A684" s="2" t="s">
         <v>152</v>
       </c>
@@ -22613,7 +22454,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A685" s="2" t="s">
         <v>152</v>
       </c>
@@ -22633,7 +22474,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A686" s="2" t="s">
         <v>153</v>
       </c>
@@ -22653,7 +22494,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A687" s="2" t="s">
         <v>153</v>
       </c>
@@ -22673,7 +22514,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A688" s="2" t="s">
         <v>153</v>
       </c>
@@ -22693,7 +22534,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A689" s="2" t="s">
         <v>153</v>
       </c>
@@ -22713,7 +22554,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A690" s="2" t="s">
         <v>153</v>
       </c>
@@ -22733,7 +22574,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A691" s="2" t="s">
         <v>153</v>
       </c>
@@ -22753,7 +22594,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A692" s="2" t="s">
         <v>153</v>
       </c>
@@ -22773,7 +22614,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A693" s="2" t="s">
         <v>153</v>
       </c>
@@ -22793,7 +22634,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A694" s="2" t="s">
         <v>153</v>
       </c>
@@ -22813,7 +22654,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A695" s="2" t="s">
         <v>153</v>
       </c>
@@ -22833,7 +22674,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A696" s="2" t="s">
         <v>153</v>
       </c>
@@ -22853,7 +22694,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A697" s="2" t="s">
         <v>153</v>
       </c>
@@ -22873,7 +22714,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A698" s="2" t="s">
         <v>153</v>
       </c>
@@ -22893,7 +22734,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A699" s="2" t="s">
         <v>153</v>
       </c>
@@ -22913,7 +22754,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A700" s="2" t="s">
         <v>153</v>
       </c>
@@ -22933,7 +22774,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A701" s="2" t="s">
         <v>153</v>
       </c>
@@ -22953,7 +22794,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A702" s="2" t="s">
         <v>153</v>
       </c>
@@ -22973,7 +22814,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A703" s="2" t="s">
         <v>153</v>
       </c>
@@ -22993,7 +22834,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A704" s="2" t="s">
         <v>153</v>
       </c>
@@ -23013,7 +22854,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A705" s="2" t="s">
         <v>153</v>
       </c>
@@ -23033,7 +22874,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A706" s="2" t="s">
         <v>153</v>
       </c>
@@ -23053,7 +22894,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A707" s="2" t="s">
         <v>153</v>
       </c>
@@ -23073,7 +22914,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A708" s="2" t="s">
         <v>153</v>
       </c>
@@ -23093,7 +22934,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A709" s="2" t="s">
         <v>153</v>
       </c>
@@ -23113,7 +22954,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A710" s="2" t="s">
         <v>153</v>
       </c>
@@ -23133,7 +22974,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A711" s="2" t="s">
         <v>153</v>
       </c>
@@ -23153,7 +22994,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A712" s="2" t="s">
         <v>153</v>
       </c>
@@ -23173,7 +23014,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A713" s="2" t="s">
         <v>153</v>
       </c>
@@ -23193,7 +23034,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A714" s="2" t="s">
         <v>153</v>
       </c>
@@ -23213,7 +23054,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:6" ht="165" x14ac:dyDescent="0.15">
       <c r="A715" s="2" t="s">
         <v>153</v>
       </c>
@@ -23233,7 +23074,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A716" s="2" t="s">
         <v>153</v>
       </c>
@@ -23253,7 +23094,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A717" s="2" t="s">
         <v>153</v>
       </c>
@@ -23273,7 +23114,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A718" s="2" t="s">
         <v>153</v>
       </c>
@@ -23293,7 +23134,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A719" s="2" t="s">
         <v>153</v>
       </c>
@@ -23313,7 +23154,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A720" s="2" t="s">
         <v>153</v>
       </c>
@@ -23333,7 +23174,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A721" s="2" t="s">
         <v>153</v>
       </c>
@@ -23353,7 +23194,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A722" s="2" t="s">
         <v>153</v>
       </c>
@@ -23373,7 +23214,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:6" ht="99" x14ac:dyDescent="0.35">
       <c r="A723" s="2" t="s">
         <v>153</v>
       </c>
@@ -23393,7 +23234,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A724" s="2" t="s">
         <v>153</v>
       </c>
@@ -23413,7 +23254,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="132" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A725" s="2" t="s">
         <v>153</v>
       </c>
@@ -23433,7 +23274,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:6" ht="132" x14ac:dyDescent="0.35">
       <c r="A726" s="2" t="s">
         <v>153</v>
       </c>
@@ -23453,7 +23294,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A727" s="2" t="s">
         <v>153</v>
       </c>
@@ -23473,7 +23314,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A728" s="2" t="s">
         <v>153</v>
       </c>
@@ -23493,7 +23334,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A729" s="2" t="s">
         <v>153</v>
       </c>
@@ -23513,7 +23354,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A730" s="2" t="s">
         <v>153</v>
       </c>
@@ -23533,7 +23374,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A731" s="2" t="s">
         <v>153</v>
       </c>
@@ -23553,7 +23394,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A732" s="2" t="s">
         <v>153</v>
       </c>
@@ -23573,7 +23414,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="148.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A733" s="2" t="s">
         <v>153</v>
       </c>
@@ -23593,7 +23434,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="132" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A734" s="2" t="s">
         <v>153</v>
       </c>
@@ -23613,7 +23454,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A735" s="2" t="s">
         <v>153</v>
       </c>
@@ -23633,7 +23474,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="33" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:6" ht="198" x14ac:dyDescent="0.35">
       <c r="A736" s="2" t="s">
         <v>153</v>
       </c>
@@ -23653,7 +23494,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:6" ht="264" x14ac:dyDescent="0.35">
       <c r="A737" s="2" t="s">
         <v>153</v>
       </c>
@@ -23673,861 +23514,174 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D738" s="14"/>
-    </row>
-    <row r="739" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D739" s="14"/>
-    </row>
-    <row r="740" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D740" s="14"/>
-    </row>
-    <row r="741" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D741" s="14"/>
-    </row>
-    <row r="742" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D742" s="14"/>
-    </row>
-    <row r="743" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D743" s="14"/>
-    </row>
-    <row r="744" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D744" s="14"/>
-    </row>
-    <row r="745" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D745" s="14"/>
-    </row>
-    <row r="746" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D746" s="14"/>
-    </row>
-    <row r="747" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D747" s="14"/>
-    </row>
-    <row r="748" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D748" s="14"/>
-    </row>
-    <row r="749" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D749" s="14"/>
-    </row>
-    <row r="750" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D750" s="14"/>
-    </row>
-    <row r="751" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D751" s="14"/>
-    </row>
-    <row r="752" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D752" s="14"/>
-    </row>
-    <row r="753" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D753" s="14"/>
-    </row>
-    <row r="754" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D754" s="14"/>
-    </row>
-    <row r="755" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D755" s="14"/>
-    </row>
-    <row r="756" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D756" s="14"/>
-    </row>
-    <row r="757" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D757" s="14"/>
-    </row>
-    <row r="758" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D758" s="14"/>
-    </row>
-    <row r="759" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D759" s="14"/>
-    </row>
-    <row r="760" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D760" s="14"/>
-    </row>
-    <row r="761" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D761" s="14"/>
-    </row>
-    <row r="762" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D762" s="14"/>
-    </row>
-    <row r="763" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D763" s="14"/>
-    </row>
-    <row r="764" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D764" s="14"/>
-    </row>
-    <row r="765" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D765" s="14"/>
-    </row>
-    <row r="766" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D766" s="14"/>
-    </row>
-    <row r="767" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D767" s="14"/>
-    </row>
-    <row r="768" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D768" s="14"/>
-    </row>
-    <row r="769" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D769" s="14"/>
-    </row>
-    <row r="770" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D770" s="14"/>
-    </row>
-    <row r="771" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D771" s="14"/>
-    </row>
-    <row r="772" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D772" s="14"/>
-    </row>
-    <row r="773" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D773" s="14"/>
-    </row>
-    <row r="774" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D774" s="14"/>
-    </row>
-    <row r="775" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D775" s="14"/>
-    </row>
-    <row r="776" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D776" s="14"/>
-    </row>
-    <row r="777" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D777" s="14"/>
-    </row>
-    <row r="778" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D778" s="14"/>
-    </row>
-    <row r="779" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D779" s="14"/>
-    </row>
-    <row r="780" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D780" s="14"/>
-    </row>
-    <row r="781" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D781" s="14"/>
-    </row>
-    <row r="782" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D782" s="14"/>
-    </row>
-    <row r="783" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D783" s="14"/>
-    </row>
-    <row r="784" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D784" s="14"/>
-    </row>
-    <row r="785" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D785" s="14"/>
-    </row>
-    <row r="786" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D786" s="14"/>
-    </row>
-    <row r="787" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D787" s="14"/>
-    </row>
-    <row r="788" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D788" s="14"/>
-    </row>
-    <row r="789" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D789" s="14"/>
-    </row>
-    <row r="790" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D790" s="14"/>
-    </row>
-    <row r="791" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D791" s="14"/>
-    </row>
-    <row r="792" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D792" s="14"/>
-    </row>
-    <row r="793" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D793" s="14"/>
-    </row>
-    <row r="794" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D794" s="14"/>
-    </row>
-    <row r="795" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D795" s="14"/>
-    </row>
-    <row r="796" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D796" s="14"/>
-    </row>
-    <row r="797" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D797" s="14"/>
-    </row>
-    <row r="798" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D798" s="14"/>
-    </row>
-    <row r="799" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D799" s="14"/>
-    </row>
-    <row r="800" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D800" s="14"/>
-    </row>
-    <row r="801" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D801" s="14"/>
-    </row>
-    <row r="802" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D802" s="18"/>
-    </row>
-    <row r="803" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D803" s="18"/>
-    </row>
-    <row r="804" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D804" s="18"/>
-    </row>
-    <row r="805" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D805" s="18"/>
-    </row>
-    <row r="806" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D806" s="18"/>
-    </row>
-    <row r="807" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D807" s="18"/>
-    </row>
-    <row r="808" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D808" s="18"/>
-    </row>
-    <row r="809" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D809" s="18"/>
-    </row>
-    <row r="810" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D810" s="18"/>
-    </row>
-    <row r="811" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D811" s="18"/>
-    </row>
-    <row r="812" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D812" s="18"/>
-    </row>
-    <row r="813" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D813" s="18"/>
-    </row>
-    <row r="814" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D814" s="18"/>
-    </row>
-    <row r="815" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D815" s="18"/>
-    </row>
-    <row r="816" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D816" s="18"/>
-    </row>
-    <row r="817" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D817" s="18"/>
-    </row>
-    <row r="818" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D818" s="18"/>
-    </row>
-    <row r="819" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D819" s="18"/>
-    </row>
-    <row r="820" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D820" s="18"/>
-    </row>
-    <row r="821" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D821" s="18"/>
-    </row>
-    <row r="822" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D822" s="19"/>
-    </row>
-    <row r="823" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D823" s="19"/>
-    </row>
-    <row r="824" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D824" s="19"/>
-    </row>
-    <row r="825" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D825" s="19"/>
-    </row>
-    <row r="826" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D826" s="19"/>
-    </row>
-    <row r="827" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D827" s="19"/>
-    </row>
-    <row r="828" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D828" s="19"/>
-    </row>
-    <row r="829" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D829" s="19"/>
-    </row>
-    <row r="830" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D830" s="19"/>
-    </row>
-    <row r="831" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D831" s="19"/>
-    </row>
-    <row r="832" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D832" s="19"/>
-    </row>
-    <row r="833" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D833" s="19"/>
-    </row>
-    <row r="834" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D834" s="19"/>
-    </row>
-    <row r="835" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D835" s="19"/>
-    </row>
-    <row r="836" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D836" s="19"/>
-    </row>
-    <row r="837" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D837" s="19"/>
-    </row>
-    <row r="838" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D838" s="19"/>
-    </row>
-    <row r="839" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D839" s="19"/>
-    </row>
-    <row r="840" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D840" s="19"/>
-    </row>
-    <row r="841" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D841" s="19"/>
-    </row>
-    <row r="842" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D842" s="19"/>
-    </row>
-    <row r="843" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D843" s="19"/>
-    </row>
-    <row r="844" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D844" s="19"/>
-    </row>
-    <row r="845" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D845" s="19"/>
-    </row>
-    <row r="846" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D846" s="18"/>
-    </row>
-    <row r="847" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D847" s="18"/>
-    </row>
-    <row r="848" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D848" s="18"/>
-    </row>
-    <row r="849" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D849" s="18"/>
-    </row>
-    <row r="850" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D850" s="15"/>
-    </row>
-    <row r="851" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D851" s="15"/>
-    </row>
-    <row r="852" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D852" s="15"/>
-    </row>
-    <row r="853" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D853" s="15"/>
-    </row>
-    <row r="854" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D854" s="15"/>
-    </row>
-    <row r="855" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D855" s="15"/>
-    </row>
-    <row r="856" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D856" s="15"/>
-    </row>
-    <row r="857" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D857" s="15"/>
-    </row>
-    <row r="858" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D858" s="15"/>
-    </row>
-    <row r="859" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D859" s="15"/>
-    </row>
-    <row r="860" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D860" s="15"/>
-    </row>
-    <row r="861" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D861" s="15"/>
-    </row>
-    <row r="862" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D862" s="15"/>
-    </row>
-    <row r="863" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D863" s="15"/>
-    </row>
-    <row r="864" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D864" s="15"/>
-    </row>
-    <row r="865" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D865" s="15"/>
-    </row>
-    <row r="866" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D866" s="15"/>
-    </row>
-    <row r="867" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D867" s="15"/>
-    </row>
-    <row r="868" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D868" s="15"/>
-    </row>
-    <row r="869" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D869" s="15"/>
-    </row>
-    <row r="870" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D870" s="15"/>
-    </row>
-    <row r="871" spans="4:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D871" s="15"/>
-    </row>
-    <row r="872" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D872" s="20"/>
-    </row>
-    <row r="873" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D873" s="20"/>
-    </row>
-    <row r="874" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D874" s="20"/>
-    </row>
-    <row r="875" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D875" s="20"/>
-    </row>
-    <row r="876" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D876" s="20"/>
-    </row>
-    <row r="877" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D877" s="20"/>
-    </row>
-    <row r="878" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D878" s="20"/>
-    </row>
-    <row r="879" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D879" s="20"/>
-    </row>
-    <row r="880" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D880" s="20"/>
-    </row>
-    <row r="881" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D881" s="20"/>
-    </row>
-    <row r="882" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D882" s="20"/>
-    </row>
-    <row r="883" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D883" s="20"/>
-    </row>
-    <row r="884" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D884" s="20"/>
-    </row>
-    <row r="885" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D885" s="20"/>
-    </row>
-    <row r="886" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D886" s="20"/>
-    </row>
-    <row r="887" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D887" s="20"/>
-    </row>
-    <row r="888" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D888" s="20"/>
-    </row>
-    <row r="889" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D889" s="20"/>
-    </row>
-    <row r="890" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D890" s="20"/>
-    </row>
-    <row r="891" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D891" s="20"/>
-    </row>
-    <row r="892" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D892" s="20"/>
-    </row>
-    <row r="893" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D893" s="20"/>
-    </row>
-    <row r="894" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D894" s="20"/>
-    </row>
-    <row r="895" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D895" s="17"/>
-    </row>
-    <row r="896" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D896" s="17"/>
-    </row>
-    <row r="897" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D897" s="5"/>
-    </row>
-    <row r="898" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D898" s="5"/>
-    </row>
-    <row r="899" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D899" s="5"/>
-    </row>
-    <row r="900" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D900" s="5"/>
-    </row>
-    <row r="901" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D901" s="5"/>
-    </row>
-    <row r="902" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D902" s="5"/>
-    </row>
-    <row r="903" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D903" s="5"/>
-    </row>
-    <row r="904" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D904" s="5"/>
-    </row>
-    <row r="905" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D905" s="5"/>
-    </row>
-    <row r="906" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D906" s="5"/>
-    </row>
-    <row r="907" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D907" s="5"/>
-    </row>
-    <row r="908" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D908" s="5"/>
-    </row>
-    <row r="909" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D909" s="5"/>
-    </row>
-    <row r="910" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D910" s="5"/>
-    </row>
-    <row r="911" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D911" s="5"/>
-    </row>
-    <row r="912" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D912" s="5"/>
-    </row>
-    <row r="913" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D913" s="5"/>
-    </row>
-    <row r="914" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D914" s="5"/>
-    </row>
-    <row r="915" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D915" s="21"/>
-    </row>
-    <row r="916" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D916" s="22"/>
-    </row>
-    <row r="917" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D917" s="22"/>
-    </row>
-    <row r="918" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D918" s="22"/>
-    </row>
-    <row r="919" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D919" s="22"/>
-    </row>
-    <row r="920" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D920" s="22"/>
-    </row>
-    <row r="921" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D921" s="23"/>
-    </row>
-    <row r="922" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D922" s="5"/>
-    </row>
-    <row r="923" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D923" s="5"/>
-    </row>
-    <row r="924" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D924" s="5"/>
-    </row>
-    <row r="925" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D925" s="5"/>
-    </row>
-    <row r="926" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D926" s="5"/>
-    </row>
-    <row r="927" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D927" s="5"/>
-    </row>
-    <row r="928" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D928" s="5"/>
-    </row>
-    <row r="929" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D929" s="5"/>
-    </row>
-    <row r="930" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D930" s="5"/>
-    </row>
-    <row r="931" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D931" s="5"/>
-    </row>
-    <row r="932" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D932" s="5"/>
-    </row>
-    <row r="933" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D933" s="5"/>
-    </row>
-    <row r="934" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D934" s="5"/>
-    </row>
-    <row r="935" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D935" s="5"/>
-    </row>
-    <row r="936" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D936" s="5"/>
-    </row>
-    <row r="937" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D937" s="5"/>
-    </row>
-    <row r="938" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D938" s="5"/>
-    </row>
-    <row r="939" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D939" s="5"/>
-    </row>
-    <row r="940" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D940" s="5"/>
-    </row>
-    <row r="941" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D941" s="5"/>
-    </row>
-    <row r="942" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D942" s="5"/>
-    </row>
-    <row r="943" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D943" s="5"/>
-    </row>
-    <row r="944" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D944" s="5"/>
-    </row>
-    <row r="945" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D945" s="5"/>
-    </row>
-    <row r="946" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D946" s="5"/>
-    </row>
-    <row r="947" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D947" s="5"/>
-    </row>
-    <row r="948" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D948" s="5"/>
-    </row>
-    <row r="949" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D949" s="5"/>
-    </row>
-    <row r="950" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D950" s="5"/>
-    </row>
-    <row r="951" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D951" s="5"/>
-    </row>
-    <row r="952" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D952" s="5"/>
-    </row>
-    <row r="953" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D953" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
+  <conditionalFormatting sqref="B2:B737">
+    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="97" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="94" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="88"/>
+  <conditionalFormatting sqref="C2:C737">
+    <cfRule type="duplicateValues" dxfId="80" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="90" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218:C234">
-    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C329:C346">
-    <cfRule type="duplicateValues" dxfId="84" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C360:C362">
-    <cfRule type="duplicateValues" dxfId="81" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C363:C366">
-    <cfRule type="duplicateValues" dxfId="78" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C392 C390 C388 C386 C394 C396:C408 C410 C412:C420">
-    <cfRule type="duplicateValues" dxfId="75" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C393">
-    <cfRule type="duplicateValues" dxfId="74" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C409">
-    <cfRule type="duplicateValues" dxfId="73" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C411 C391 C389 C387 C385 C395">
-    <cfRule type="duplicateValues" dxfId="72" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C421 C433:C434">
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C451:C452">
-    <cfRule type="duplicateValues" dxfId="68" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C482">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C484">
-    <cfRule type="duplicateValues" dxfId="64" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C486:C487">
-    <cfRule type="duplicateValues" dxfId="63" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C488">
-    <cfRule type="duplicateValues" dxfId="62" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C489">
-    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C490">
-    <cfRule type="duplicateValues" dxfId="56" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C491:C492">
-    <cfRule type="duplicateValues" dxfId="53" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C493">
-    <cfRule type="duplicateValues" dxfId="52" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C494">
-    <cfRule type="duplicateValues" dxfId="51" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C495">
-    <cfRule type="duplicateValues" dxfId="46" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C496:C498">
-    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C73">
-    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C73">
-    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C217">
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C217">
-    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235:C284">
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235:C284">
-    <cfRule type="duplicateValues" dxfId="35" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285:C320">
-    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285:C320">
-    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218:C234 C321:C346">
-    <cfRule type="duplicateValues" dxfId="28" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C321:C328">
-    <cfRule type="duplicateValues" dxfId="27" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C717:C765">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+  <conditionalFormatting sqref="C717:C737">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C717:C765">
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+  <conditionalFormatting sqref="C717:C737">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C717:C765">
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C775:C780">
-    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C775:C785">
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C786">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C787:C801">
-    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C766:C774">
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C766:C774">
-    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C766:C774">
-    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C822:C826">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C827:C849">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C827:C849">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C827:C849">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C850:C871">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  <conditionalFormatting sqref="C717:C737">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C431:C432">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C422:C430">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C422:C430">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C422:C430">
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="C422:C430">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C940:C953">
+  <conditionalFormatting sqref="C2:C737">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C677:C679">
@@ -24549,8 +23703,5 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B1:E737 F2:F737" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>